--- a/data/Laporan/06-19-2023/tokped.xlsx
+++ b/data/Laporan/06-19-2023/tokped.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Laporan\06-19-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F7FCEC-1204-2A48-B6A6-AEF373EADCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6172157-85C4-498C-A0A6-520570E787E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laporan Penjualan" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="148">
   <si>
     <t>Nama Toko:</t>
   </si>
@@ -377,9 +377,6 @@
     <t>INV/20230615/MPL/3275280180</t>
   </si>
   <si>
-    <t>INV/20230615/MPL/3275330293</t>
-  </si>
-  <si>
     <t>INV/20230608/MPL/8220654100</t>
   </si>
   <si>
@@ -468,12 +465,6 @@
   </si>
   <si>
     <t>JT1258833943</t>
-  </si>
-  <si>
-    <t>JT1521155411</t>
-  </si>
-  <si>
-    <t>JT1521155445</t>
   </si>
 </sst>
 </file>
@@ -481,9 +472,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="dd\-mm\-yyyy\ hh\:mm\:mm"/>
-    <numFmt numFmtId="169" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="171" formatCode="hh\:mm\:ss"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\:mm\:mm"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="hh\:mm\:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -526,7 +517,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -593,11 +584,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -613,10 +646,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -630,25 +663,79 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -992,11 +1079,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ29" sqref="AJ29"/>
+    <sheetView tabSelected="1" topLeftCell="AJ25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM28" sqref="AM28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
@@ -1015,7 +1102,7 @@
     <col min="39" max="40" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1039,8 +1126,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:40" s="11" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:40" s="11" customFormat="1" ht="40.049999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" s="12" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1268,7 +1355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" s="12" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>47</v>
@@ -1372,7 +1459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" s="12" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
@@ -1472,7 +1559,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" s="12" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -1578,12 +1665,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="7">
         <v>45085.844513888886</v>
@@ -1594,13 +1681,13 @@
       <c r="E10" s="8">
         <v>45087</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>0.60858796296296302</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>53</v>
@@ -1641,22 +1728,22 @@
         <v>1999</v>
       </c>
       <c r="Z10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA10" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AA10" s="6" t="s">
+      <c r="AB10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD10" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AB10" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD10" s="13" t="s">
+      <c r="AE10" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>62</v>
@@ -1668,7 +1755,7 @@
         <v>64</v>
       </c>
       <c r="AI10" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ10" s="8">
         <v>45086</v>
@@ -1678,18 +1765,18 @@
       </c>
       <c r="AL10" s="1"/>
       <c r="AM10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN10" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="7">
         <v>45085.844513888886</v>
@@ -1700,13 +1787,13 @@
       <c r="E11" s="8">
         <v>45087</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>0.60858796296296302</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>53</v>
@@ -1747,22 +1834,22 @@
         <v>1999</v>
       </c>
       <c r="Z11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AA11" s="6" t="s">
+      <c r="AB11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD11" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AB11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD11" s="13" t="s">
+      <c r="AE11" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>62</v>
@@ -1774,7 +1861,7 @@
         <v>64</v>
       </c>
       <c r="AI11" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ11" s="8">
         <v>45086</v>
@@ -1784,18 +1871,18 @@
       </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN11" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="7">
         <v>45085.416701388887</v>
@@ -1806,13 +1893,13 @@
       <c r="E12" s="8">
         <v>45087</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>0.60858796296296302</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>53</v>
@@ -1853,22 +1940,22 @@
         <v>1999</v>
       </c>
       <c r="Z12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA12" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AA12" s="6" t="s">
+      <c r="AB12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD12" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AB12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD12" s="13" t="s">
+      <c r="AE12" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>62</v>
@@ -1880,7 +1967,7 @@
         <v>64</v>
       </c>
       <c r="AI12" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ12" s="8">
         <v>45086</v>
@@ -1896,12 +1983,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="7">
         <v>45085.423946759256</v>
@@ -1912,13 +1999,13 @@
       <c r="E13" s="8">
         <v>45087</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>0.6555671296296296</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>53</v>
@@ -1959,22 +2046,22 @@
         <v>1999</v>
       </c>
       <c r="Z13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA13" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AA13" s="6" t="s">
+      <c r="AB13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AB13" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD13" s="13" t="s">
+      <c r="AE13" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>62</v>
@@ -1986,7 +2073,7 @@
         <v>64</v>
       </c>
       <c r="AI13" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ13" s="8">
         <v>45086</v>
@@ -2002,7 +2089,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -2018,7 +2105,7 @@
       <c r="E14" s="8">
         <v>45089</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>0.52525462962962965</v>
       </c>
       <c r="G14" s="6"/>
@@ -2065,22 +2152,22 @@
         <v>1999</v>
       </c>
       <c r="Z14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA14" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AA14" s="6" t="s">
+      <c r="AB14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD14" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="AB14" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC14" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD14" s="17" t="s">
+      <c r="AE14" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="AF14" s="6" t="s">
         <v>62</v>
@@ -2108,7 +2195,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -2124,7 +2211,7 @@
       <c r="E15" s="8">
         <v>45089</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>0.57223379629629634</v>
       </c>
       <c r="G15" s="6"/>
@@ -2171,22 +2258,22 @@
         <v>1999</v>
       </c>
       <c r="Z15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AA15" s="6" t="s">
+      <c r="AB15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD15" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="AB15" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD15" s="17" t="s">
+      <c r="AE15" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="AF15" s="6" t="s">
         <v>62</v>
@@ -2214,7 +2301,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -2232,7 +2319,7 @@
       <c r="G16" s="8">
         <v>45086</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <v>0.52525462962962965</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -2277,22 +2364,22 @@
         <v>1999</v>
       </c>
       <c r="Z16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AA16" s="6" t="s">
+      <c r="AB16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD16" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="AB16" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC16" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD16" s="17" t="s">
+      <c r="AE16" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="AF16" s="6" t="s">
         <v>62</v>
@@ -2314,7 +2401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -2332,7 +2419,7 @@
       <c r="G17" s="8">
         <v>45086</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <v>0.57223379629629634</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -2377,22 +2464,22 @@
         <v>1999</v>
       </c>
       <c r="Z17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA17" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AA17" s="6" t="s">
+      <c r="AB17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD17" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="AB17" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD17" s="17" t="s">
+      <c r="AE17" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="AF17" s="6" t="s">
         <v>62</v>
@@ -2414,7 +2501,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -2430,7 +2517,7 @@
       <c r="E18" s="8">
         <v>45089</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <v>0.73358796296296302</v>
       </c>
       <c r="G18" s="6"/>
@@ -2477,22 +2564,22 @@
         <v>1999</v>
       </c>
       <c r="Z18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA18" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AA18" s="6" t="s">
+      <c r="AB18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD18" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AB18" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD18" s="13" t="s">
+      <c r="AE18" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="AF18" s="6" t="s">
         <v>62</v>
@@ -2504,12 +2591,12 @@
         <v>64</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ18" s="8">
         <v>45087</v>
       </c>
-      <c r="AK18" s="18">
+      <c r="AK18" s="17">
         <v>0.50261574074074067</v>
       </c>
       <c r="AL18" s="6"/>
@@ -2520,7 +2607,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -2536,7 +2623,7 @@
       <c r="E19" s="8">
         <v>45090</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <v>0.6555671296296296</v>
       </c>
       <c r="G19" s="6"/>
@@ -2583,22 +2670,22 @@
         <v>1999</v>
       </c>
       <c r="Z19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA19" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AA19" s="6" t="s">
+      <c r="AB19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD19" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AB19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD19" s="13" t="s">
+      <c r="AE19" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="AE19" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="AF19" s="6" t="s">
         <v>62</v>
@@ -2610,12 +2697,12 @@
         <v>64</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ19" s="8">
         <v>45088</v>
       </c>
-      <c r="AK19" s="18">
+      <c r="AK19" s="17">
         <v>0.50276620370370373</v>
       </c>
       <c r="AL19" s="6"/>
@@ -2626,7 +2713,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -2642,7 +2729,7 @@
       <c r="E20" s="8">
         <v>45090</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <v>0.52525462962962965</v>
       </c>
       <c r="G20" s="6"/>
@@ -2689,22 +2776,22 @@
         <v>1999</v>
       </c>
       <c r="Z20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA20" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AA20" s="6" t="s">
+      <c r="AB20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD20" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AB20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD20" s="13" t="s">
+      <c r="AE20" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="AF20" s="6" t="s">
         <v>62</v>
@@ -2716,12 +2803,12 @@
         <v>64</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ20" s="8">
         <v>45088</v>
       </c>
-      <c r="AK20" s="18">
+      <c r="AK20" s="17">
         <v>0.50400462962962966</v>
       </c>
       <c r="AL20" s="6"/>
@@ -2732,7 +2819,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -2748,7 +2835,7 @@
       <c r="E21" s="8">
         <v>45090</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <v>0.57223379629629634</v>
       </c>
       <c r="G21" s="6"/>
@@ -2795,22 +2882,22 @@
         <v>1999</v>
       </c>
       <c r="Z21" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA21" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AA21" s="6" t="s">
+      <c r="AB21" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD21" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AB21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD21" s="13" t="s">
+      <c r="AE21" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="AF21" s="6" t="s">
         <v>62</v>
@@ -2822,12 +2909,12 @@
         <v>64</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ21" s="8">
         <v>45088</v>
       </c>
-      <c r="AK21" s="18">
+      <c r="AK21" s="17">
         <v>0.50747685185185187</v>
       </c>
       <c r="AL21" s="6"/>
@@ -2838,7 +2925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -2854,7 +2941,7 @@
       <c r="E22" s="8">
         <v>45093</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <v>0.73358796296296302</v>
       </c>
       <c r="G22" s="6"/>
@@ -2901,22 +2988,22 @@
         <v>1999</v>
       </c>
       <c r="Z22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA22" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AA22" s="6" t="s">
+      <c r="AB22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD22" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="AB22" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD22" s="17" t="s">
+      <c r="AE22" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="AF22" s="6" t="s">
         <v>62</v>
@@ -2928,12 +3015,12 @@
         <v>64</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ22" s="8">
         <v>45090</v>
       </c>
-      <c r="AK22" s="18">
+      <c r="AK22" s="17">
         <v>0.38247685185185182</v>
       </c>
       <c r="AL22" s="6"/>
@@ -2944,7 +3031,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -2960,7 +3047,7 @@
       <c r="E23" s="8">
         <v>45093</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="17">
         <v>0.6555671296296296</v>
       </c>
       <c r="G23" s="6"/>
@@ -3007,22 +3094,22 @@
         <v>1999</v>
       </c>
       <c r="Z23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA23" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AB23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD23" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="AB23" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD23" s="17" t="s">
+      <c r="AE23" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>62</v>
@@ -3034,12 +3121,12 @@
         <v>64</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ23" s="8">
         <v>45090</v>
       </c>
-      <c r="AK23" s="18">
+      <c r="AK23" s="17">
         <v>0.4241435185185185</v>
       </c>
       <c r="AL23" s="6"/>
@@ -3050,7 +3137,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>17</v>
       </c>
@@ -3066,7 +3153,7 @@
       <c r="E24" s="8">
         <v>45093</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="17">
         <v>0.52525462962962965</v>
       </c>
       <c r="G24" s="6"/>
@@ -3113,22 +3200,22 @@
         <v>1999</v>
       </c>
       <c r="Z24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA24" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AA24" s="6" t="s">
+      <c r="AB24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD24" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="AB24" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD24" s="17" t="s">
+      <c r="AE24" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="AF24" s="6" t="s">
         <v>62</v>
@@ -3140,12 +3227,12 @@
         <v>64</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ24" s="8">
         <v>45090</v>
       </c>
-      <c r="AK24" s="18">
+      <c r="AK24" s="17">
         <v>0.50747685185185187</v>
       </c>
       <c r="AL24" s="6"/>
@@ -3156,7 +3243,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -3172,7 +3259,7 @@
       <c r="E25" s="8">
         <v>45093</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="17">
         <v>0.57223379629629634</v>
       </c>
       <c r="G25" s="6"/>
@@ -3219,22 +3306,22 @@
         <v>1999</v>
       </c>
       <c r="Z25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA25" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AA25" s="6" t="s">
+      <c r="AB25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD25" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="AB25" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD25" s="17" t="s">
+      <c r="AE25" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="AF25" s="6" t="s">
         <v>62</v>
@@ -3246,12 +3333,12 @@
         <v>64</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ25" s="8">
         <v>45090</v>
       </c>
-      <c r="AK25" s="18">
+      <c r="AK25" s="17">
         <v>0.50747685185185187</v>
       </c>
       <c r="AL25" s="6"/>
@@ -3262,7 +3349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -3278,7 +3365,7 @@
       <c r="E26" s="8">
         <v>45093</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <v>0.73358796296296302</v>
       </c>
       <c r="G26" s="6"/>
@@ -3325,22 +3412,22 @@
         <v>1999</v>
       </c>
       <c r="Z26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA26" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AA26" s="6" t="s">
+      <c r="AB26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD26" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="AB26" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD26" s="17" t="s">
+      <c r="AE26" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="AF26" s="6" t="s">
         <v>62</v>
@@ -3352,12 +3439,12 @@
         <v>64</v>
       </c>
       <c r="AI26" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ26" s="8">
         <v>45090</v>
       </c>
-      <c r="AK26" s="18">
+      <c r="AK26" s="17">
         <v>0.5491435185185185</v>
       </c>
       <c r="AL26" s="6"/>
@@ -3368,7 +3455,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40" s="11" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>21</v>
       </c>
@@ -3384,7 +3471,7 @@
       <c r="E27" s="15">
         <v>45093</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <v>0.6555671296296296</v>
       </c>
       <c r="G27" s="5"/>
@@ -3431,22 +3518,22 @@
         <v>1999</v>
       </c>
       <c r="Z27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA27" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AA27" s="4" t="s">
+      <c r="AB27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD27" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AB27" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD27" s="20" t="s">
+      <c r="AE27" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="AE27" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="AF27" s="5" t="s">
         <v>62</v>
@@ -3458,12 +3545,12 @@
         <v>64</v>
       </c>
       <c r="AI27" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AJ27" s="15">
         <v>45090</v>
       </c>
-      <c r="AK27" s="19">
+      <c r="AK27" s="18">
         <v>0.59081018518518513</v>
       </c>
       <c r="AL27" s="5"/>
@@ -3474,317 +3561,189 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="51" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+    <row r="28" spans="1:40" ht="48.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
         <v>22</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="30">
         <v>45092.423946759256</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="8">
+      <c r="E28" s="21"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32">
         <v>45092</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="31">
         <v>0.5305671296296296</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5">
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21">
         <v>1</v>
       </c>
-      <c r="O28" s="5">
-        <v>1999</v>
-      </c>
-      <c r="P28" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>1999</v>
-      </c>
-      <c r="R28" s="5">
-        <v>0</v>
-      </c>
-      <c r="S28" s="5">
-        <v>0</v>
-      </c>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y28" s="5">
-        <v>1999</v>
-      </c>
-      <c r="Z28" s="6" t="s">
+      <c r="O28" s="21">
+        <v>1999</v>
+      </c>
+      <c r="P28" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>1999</v>
+      </c>
+      <c r="R28" s="21">
+        <v>0</v>
+      </c>
+      <c r="S28" s="21">
+        <v>0</v>
+      </c>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="X28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y28" s="21">
+        <v>1999</v>
+      </c>
+      <c r="Z28" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA28" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AA28" s="6" t="s">
+      <c r="AB28" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC28" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD28" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="AB28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC28" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD28" s="17" t="s">
+      <c r="AE28" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AE28" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF28" s="5" t="s">
+      <c r="AF28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AG28" s="5" t="s">
+      <c r="AG28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AH28" s="5" t="s">
+      <c r="AH28" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN28" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" ht="51" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
-        <v>23</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="7">
-        <v>45092.416701388887</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="15">
-        <v>45095</v>
-      </c>
-      <c r="F29" s="19">
-        <v>0.57223379629629634</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5">
-        <v>1999</v>
-      </c>
-      <c r="P29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>1999</v>
-      </c>
-      <c r="R29" s="5">
-        <v>0</v>
-      </c>
-      <c r="S29" s="5">
-        <v>0</v>
-      </c>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y29" s="5">
-        <v>1999</v>
-      </c>
-      <c r="Z29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA29" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD29" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE29" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI29" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ29" s="15">
-        <v>45093</v>
-      </c>
-      <c r="AK29" s="19">
-        <v>0.50747685185185187</v>
-      </c>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN29" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" ht="51" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
-        <v>24</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="14">
-        <v>45092.423946759256</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="15">
-        <v>45095</v>
-      </c>
-      <c r="F30" s="19">
-        <v>0.57309027777777777</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5">
-        <v>1</v>
-      </c>
-      <c r="O30" s="5">
-        <v>1999</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>1999</v>
-      </c>
-      <c r="R30" s="5">
-        <v>0</v>
-      </c>
-      <c r="S30" s="5">
-        <v>0</v>
-      </c>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y30" s="5">
-        <v>1999</v>
-      </c>
-      <c r="Z30" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA30" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD30" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI30" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ30" s="15">
-        <v>45093</v>
-      </c>
-      <c r="AK30" s="19">
-        <v>0.50817129629629632</v>
-      </c>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN30" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="21"/>
+      <c r="AM28" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN28" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="28"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+    </row>
+    <row r="30" spans="1:40" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="34"/>
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="34"/>
+      <c r="AM30" s="34"/>
+      <c r="AN30" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3805,13 +3764,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -3819,7 +3778,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3827,7 +3786,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3835,7 +3794,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
@@ -3843,7 +3802,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
@@ -3851,7 +3810,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -3859,7 +3818,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>97</v>
       </c>
@@ -3867,7 +3826,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>99</v>
       </c>
@@ -3875,7 +3834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
@@ -3883,7 +3842,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
@@ -3891,7 +3850,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>105</v>
       </c>
@@ -3899,7 +3858,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -3907,7 +3866,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>108</v>
       </c>
@@ -3915,7 +3874,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>110</v>
       </c>
